--- a/tests_cases/TC-Print3-01.xlsx
+++ b/tests_cases/TC-Print3-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igu/Documents/UADE/Testing de aplicacioones /TestingAplicaciones-TPO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\TestingAplicaciones--Jarron-Shang--TPO\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298658E5-732F-5049-9B92-05B51063C0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530827FD-520F-4657-9AB0-0DCE13872644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15580" yWindow="760" windowWidth="14660" windowHeight="17640" xr2:uid="{D25F4DC2-856B-BD4F-8D8D-2077668DD2F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D25F4DC2-856B-BD4F-8D8D-2077668DD2F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Abrir un navegador web : Google Chrome</t>
   </si>
   <si>
-    <t>Ingresar a la pagina quierocomprar.com</t>
-  </si>
-  <si>
     <t>Se deberia entrar a la pagina deseada</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>Se deberia ingresar a la pagina con la cuenta del usuario</t>
   </si>
   <si>
-    <t>Camino alternativo</t>
-  </si>
-  <si>
     <t>Normal</t>
   </si>
   <si>
@@ -191,31 +185,10 @@
     <t>Ingresar datos de usuario: test@email.com y pass: Password12.</t>
   </si>
   <si>
-    <t>New Password: Password12.</t>
-  </si>
-  <si>
-    <t>Se deberia mostar un cartel de error</t>
-  </si>
-  <si>
-    <t>Cambiar email: New@email.com</t>
-  </si>
-  <si>
-    <t>La pagina no deberia permitirlo</t>
-  </si>
-  <si>
-    <t>Cambiar First name: Pepe</t>
-  </si>
-  <si>
-    <t>Cambiar Last name: Argento</t>
-  </si>
-  <si>
-    <t>Agregar Secondary email: test2@email.com</t>
-  </si>
-  <si>
     <t>HU-4</t>
   </si>
   <si>
-    <t>Abrir un navegador web : Safari</t>
+    <t>Ingresar a la pagina http://127.0.0.1:5000</t>
   </si>
 </sst>
 </file>
@@ -289,7 +262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,14 +274,8 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -525,50 +492,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -640,23 +570,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -688,18 +636,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -717,60 +653,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1088,34 +970,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D36A19-2677-574C-8EC2-0AD18FFA1610}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D1" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1129,7 +1011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1142,18 +1024,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
@@ -1167,90 +1049,90 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A8" s="27">
+    <row r="8" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
         <v>1</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="24">
         <v>1</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
         <v>2</v>
       </c>
-      <c r="B9" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="46"/>
+      <c r="B9" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="48"/>
       <c r="D9" s="24">
         <v>2</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
         <v>3</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="24">
         <v>3</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A11" s="27">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
         <v>4</v>
       </c>
-      <c r="B11" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="46"/>
+      <c r="B11" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="48"/>
       <c r="D11" s="25">
         <v>4</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-    </row>
-    <row r="16" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B14" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
+    </row>
+    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="16" t="s">
@@ -1260,853 +1142,194 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="44"/>
-    </row>
-    <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="36"/>
+    </row>
+    <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>1</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="51" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="52"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>2</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="52"/>
-    </row>
-    <row r="21" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>3</v>
       </c>
-      <c r="B21" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="55" t="s">
+      <c r="B21" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="56"/>
-    </row>
-    <row r="22" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="30"/>
+    </row>
+    <row r="22" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>4</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="54"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="32"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>5</v>
       </c>
-      <c r="B23" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="54"/>
-    </row>
-    <row r="24" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>6</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>7</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="51" t="s">
+      <c r="C25" s="28"/>
+      <c r="D25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="28"/>
+    </row>
+    <row r="26" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>8</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="28"/>
+    </row>
+    <row r="27" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>9</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="28"/>
+    </row>
+    <row r="28" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>10</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="28"/>
+    </row>
+    <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>11</v>
+      </c>
+      <c r="B29" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="52"/>
-    </row>
-    <row r="25" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26">
-        <v>7</v>
-      </c>
-      <c r="B25" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="52"/>
-    </row>
-    <row r="26" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26">
-        <v>8</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="52"/>
-    </row>
-    <row r="27" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26">
-        <v>9</v>
-      </c>
-      <c r="B27" s="51" t="s">
+      <c r="C29" s="28"/>
+      <c r="D29" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <v>12</v>
+      </c>
+      <c r="B30" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="52"/>
-    </row>
-    <row r="28" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26">
-        <v>10</v>
-      </c>
-      <c r="B28" s="51" t="s">
+      <c r="C30" s="28"/>
+      <c r="D30" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="52"/>
-    </row>
-    <row r="29" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="26">
-        <v>11</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="52" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="26">
-        <v>12</v>
-      </c>
-      <c r="B30" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="52"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="44"/>
-    </row>
-    <row r="34" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22">
-        <v>1</v>
-      </c>
-      <c r="B34" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="52"/>
-    </row>
-    <row r="35" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="22">
-        <v>2</v>
-      </c>
-      <c r="B35" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="52"/>
-    </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="22">
-        <v>3</v>
-      </c>
-      <c r="B36" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="56"/>
-    </row>
-    <row r="37" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="22">
-        <v>4</v>
-      </c>
-      <c r="B37" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="54"/>
-    </row>
-    <row r="38" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="22">
-        <v>5</v>
-      </c>
-      <c r="B38" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="52"/>
-    </row>
-    <row r="39" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="22">
-        <v>6</v>
-      </c>
-      <c r="B39" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="52"/>
-    </row>
-    <row r="40" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="26">
-        <v>7</v>
-      </c>
-      <c r="B40" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="52"/>
-    </row>
-    <row r="41" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="26">
-        <v>8</v>
-      </c>
-      <c r="B41" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="52"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="42"/>
-      <c r="D43" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="44"/>
-    </row>
-    <row r="44" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="22">
-        <v>1</v>
-      </c>
-      <c r="B44" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="52"/>
-    </row>
-    <row r="45" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="22">
-        <v>2</v>
-      </c>
-      <c r="B45" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="52"/>
-      <c r="D45" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="52"/>
-    </row>
-    <row r="46" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="22">
-        <v>3</v>
-      </c>
-      <c r="B46" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="52"/>
-      <c r="D46" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="56"/>
-    </row>
-    <row r="47" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="22">
-        <v>4</v>
-      </c>
-      <c r="B47" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="54"/>
-    </row>
-    <row r="48" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="22">
-        <v>5</v>
-      </c>
-      <c r="B48" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" s="54"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="26">
-        <v>6</v>
-      </c>
-      <c r="B49" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="52"/>
-      <c r="D49" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="54"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="42"/>
-      <c r="D51" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="44"/>
-    </row>
-    <row r="52" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="22">
-        <v>1</v>
-      </c>
-      <c r="B52" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="52"/>
-      <c r="D52" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="52"/>
-    </row>
-    <row r="53" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="22">
-        <v>2</v>
-      </c>
-      <c r="B53" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="52"/>
-      <c r="D53" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" s="52"/>
-    </row>
-    <row r="54" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="22">
-        <v>3</v>
-      </c>
-      <c r="B54" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" s="52"/>
-      <c r="D54" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="56"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="22">
-        <v>4</v>
-      </c>
-      <c r="B55" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="C55" s="52"/>
-      <c r="D55" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" s="54"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="22">
-        <v>5</v>
-      </c>
-      <c r="B56" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C56" s="52"/>
-      <c r="D56" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56" s="54"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="26">
-        <v>6</v>
-      </c>
-      <c r="B57" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="52"/>
-      <c r="D57" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="E57" s="54"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" s="58"/>
-      <c r="D59" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="60"/>
-    </row>
-    <row r="60" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="30">
-        <v>1</v>
-      </c>
-      <c r="B60" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" s="62"/>
-      <c r="D60" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" s="62"/>
-    </row>
-    <row r="61" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="30">
-        <v>2</v>
-      </c>
-      <c r="B61" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="62"/>
-      <c r="D61" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="62"/>
-    </row>
-    <row r="62" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="30">
-        <v>3</v>
-      </c>
-      <c r="B62" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62" s="62"/>
-      <c r="D62" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="67"/>
-    </row>
-    <row r="63" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="30">
-        <v>4</v>
-      </c>
-      <c r="B63" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" s="62"/>
-      <c r="D63" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="E63" s="65"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="30">
-        <v>5</v>
-      </c>
-      <c r="B64" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="62"/>
-      <c r="D64" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="E64" s="65"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="30">
-        <v>6</v>
-      </c>
-      <c r="B65" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65" s="62"/>
-      <c r="D65" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="E65" s="65"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" s="42"/>
-      <c r="D67" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="44"/>
-    </row>
-    <row r="68" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="22">
-        <v>1</v>
-      </c>
-      <c r="B68" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" s="52"/>
-      <c r="D68" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E68" s="52"/>
-    </row>
-    <row r="69" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="22">
-        <v>2</v>
-      </c>
-      <c r="B69" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="52"/>
-      <c r="D69" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E69" s="52"/>
-    </row>
-    <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="22">
-        <v>3</v>
-      </c>
-      <c r="B70" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C70" s="52"/>
-      <c r="D70" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E70" s="56"/>
-    </row>
-    <row r="71" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="22">
-        <v>4</v>
-      </c>
-      <c r="B71" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="C71" s="52"/>
-      <c r="D71" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E71" s="54"/>
-    </row>
-    <row r="72" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="22">
-        <v>5</v>
-      </c>
-      <c r="B72" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C72" s="52"/>
-      <c r="D72" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E72" s="52"/>
-    </row>
-    <row r="73" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="28">
-        <v>6</v>
-      </c>
-      <c r="B73" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C73" s="52"/>
-      <c r="D73" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="E73" s="68"/>
-    </row>
-    <row r="74" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="22">
-        <v>7</v>
-      </c>
-      <c r="B74" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C74" s="52"/>
-      <c r="D74" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="E74" s="52"/>
-    </row>
-    <row r="75" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="26">
-        <v>8</v>
-      </c>
-      <c r="B75" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75" s="52"/>
-      <c r="D75" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="E75" s="52"/>
-    </row>
-    <row r="76" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="26">
-        <v>9</v>
-      </c>
-      <c r="B76" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="C76" s="52"/>
-      <c r="D76" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="E76" s="52"/>
-    </row>
-    <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="26">
-        <v>10</v>
-      </c>
-      <c r="B77" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C77" s="52"/>
-      <c r="D77" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="E77" s="56"/>
-    </row>
-    <row r="78" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="26">
-        <v>11</v>
-      </c>
-      <c r="B78" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C78" s="52"/>
-      <c r="D78" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="E78" s="54"/>
-    </row>
-    <row r="79" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="26">
-        <v>12</v>
-      </c>
-      <c r="B79" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C79" s="52"/>
-      <c r="D79" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="E79" s="52" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="26">
-        <v>13</v>
-      </c>
-      <c r="B80" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C80" s="52"/>
-      <c r="D80" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="E80" s="52"/>
+      <c r="E30" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="121">
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
+  <mergeCells count="33">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D35:E35"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="B23:C23"/>
@@ -2119,20 +1342,12 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:E15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests_cases/TC-Print3-01.xlsx
+++ b/tests_cases/TC-Print3-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\TestingAplicaciones--Jarron-Shang--TPO\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530827FD-520F-4657-9AB0-0DCE13872644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A73029-3477-4395-A869-13970E39D125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D25F4DC2-856B-BD4F-8D8D-2077668DD2F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -189,13 +189,52 @@
   </si>
   <si>
     <t>Ingresar a la pagina http://127.0.0.1:5000</t>
+  </si>
+  <si>
+    <t>Executions</t>
+  </si>
+  <si>
+    <t>Regression 1</t>
+  </si>
+  <si>
+    <t>Tester: Ignacio Tsai</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>Pass / Fail / Not executed / Suspended</t>
+  </si>
+  <si>
+    <t>Not executed</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>didn't turn out as we expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail </t>
+  </si>
+  <si>
+    <t>Not tested (birthday)</t>
+  </si>
+  <si>
+    <t>Defects Created</t>
+  </si>
+  <si>
+    <t>DF-006: La pagina no guarda los cambias hecho en el perfil pero si hace la modificacion de password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,8 +300,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,8 +342,18 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -492,13 +570,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -576,11 +754,77 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -588,74 +832,58 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
+    <cellStyle name="Entrada" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{9D0C29B6-0928-FA4D-A8F0-20C320FD52A7}"/>
     <cellStyle name="Note 2" xfId="1" xr:uid="{3199315A-BB95-DD4D-B688-F37EF362EA2B}"/>
@@ -970,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D36A19-2677-574C-8EC2-0AD18FFA1610}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20:O20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -992,10 +1220,10 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1053,10 +1281,10 @@
       <c r="A8" s="26">
         <v>1</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="24">
         <v>1</v>
       </c>
@@ -1068,10 +1296,10 @@
       <c r="A9" s="26">
         <v>2</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="48"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="24">
         <v>2</v>
       </c>
@@ -1083,10 +1311,10 @@
       <c r="A10" s="26">
         <v>3</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="24">
         <v>3</v>
       </c>
@@ -1098,10 +1326,10 @@
       <c r="A11" s="26">
         <v>4</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="48"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="25">
         <v>4</v>
       </c>
@@ -1110,22 +1338,22 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
@@ -1142,194 +1370,449 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="36"/>
-    </row>
-    <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>1</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="27" t="s">
+      <c r="C19" s="48"/>
+      <c r="D19" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="28"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="48"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>2</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="48"/>
+      <c r="D20" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="28"/>
-    </row>
-    <row r="21" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="48"/>
+    </row>
+    <row r="21" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>3</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29" t="s">
+      <c r="C21" s="48"/>
+      <c r="D21" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="30"/>
-    </row>
-    <row r="22" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="52"/>
+    </row>
+    <row r="22" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>4</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="31" t="s">
+      <c r="C22" s="48"/>
+      <c r="D22" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="32"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="50"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>5</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="31" t="s">
+      <c r="C23" s="48"/>
+      <c r="D23" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="32"/>
-    </row>
-    <row r="24" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="50"/>
+    </row>
+    <row r="24" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>6</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="27" t="s">
+      <c r="C24" s="48"/>
+      <c r="D24" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="28"/>
-    </row>
-    <row r="25" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="48"/>
+    </row>
+    <row r="25" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>7</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="48"/>
+      <c r="D25" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="28"/>
-    </row>
-    <row r="26" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="48"/>
+    </row>
+    <row r="26" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>8</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="27" t="s">
+      <c r="C26" s="48"/>
+      <c r="D26" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="28"/>
-    </row>
-    <row r="27" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="48"/>
+    </row>
+    <row r="27" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>9</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="27" t="s">
+      <c r="C27" s="48"/>
+      <c r="D27" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="28"/>
-    </row>
-    <row r="28" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="48"/>
+    </row>
+    <row r="28" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>10</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="48"/>
+      <c r="D28" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="28"/>
-    </row>
-    <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="48"/>
+    </row>
+    <row r="29" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>11</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="27" t="s">
+      <c r="C29" s="48"/>
+      <c r="D29" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="48" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>12</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="27" t="s">
+      <c r="C30" s="48"/>
+      <c r="D30" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="28"/>
+      <c r="E30" s="48"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="56"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="59"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="64"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+    </row>
+    <row r="50" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="67"/>
+      <c r="C50" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:E15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B27:C27"/>
+  <mergeCells count="64">
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="B23:C23"/>
@@ -1342,12 +1825,21 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests_cases/TC-Print3-01.xlsx
+++ b/tests_cases/TC-Print3-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\TestingAplicaciones--Jarron-Shang--TPO\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A73029-3477-4395-A869-13970E39D125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC8EBDC-4275-4B22-B6FA-BAFBBF9A9CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D25F4DC2-856B-BD4F-8D8D-2077668DD2F1}"/>
   </bookViews>
@@ -185,9 +185,6 @@
     <t>Ingresar datos de usuario: test@email.com y pass: Password12.</t>
   </si>
   <si>
-    <t>HU-4</t>
-  </si>
-  <si>
     <t>Ingresar a la pagina http://127.0.0.1:5000</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>DF-006: La pagina no guarda los cambias hecho en el perfil pero si hace la modificacion de password</t>
+  </si>
+  <si>
+    <t>PE-53</t>
   </si>
 </sst>
 </file>
@@ -724,12 +724,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -754,6 +748,72 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -814,71 +874,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1200,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D36A19-2677-574C-8EC2-0AD18FFA1610}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:H47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1220,10 +1220,10 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1248,7 +1248,7 @@
       <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="21">
         <v>2</v>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -1278,504 +1278,555 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="24">
+      <c r="C8" s="66"/>
+      <c r="D8" s="22">
         <v>1</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+      <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="24">
+      <c r="C9" s="62"/>
+      <c r="D9" s="22">
         <v>2</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="24">
         <v>3</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="24">
+      <c r="C10" s="64"/>
+      <c r="D10" s="22">
         <v>3</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="A11" s="24">
         <v>4</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="25">
+      <c r="C11" s="62"/>
+      <c r="D11" s="23">
         <v>4</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
     </row>
     <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="18"/>
+      <c r="B16" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="68"/>
       <c r="D16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39" t="s">
+      <c r="C18" s="58"/>
+      <c r="D18" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="40"/>
+      <c r="E18" s="60"/>
     </row>
     <row r="19" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="20">
         <v>1</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="47" t="s">
+      <c r="C19" s="42"/>
+      <c r="D19" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="48"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
+      <c r="A20" s="20">
         <v>2</v>
       </c>
-      <c r="B20" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="47" t="s">
+      <c r="B20" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="48"/>
+      <c r="E20" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="20">
         <v>3</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="51" t="s">
+      <c r="C21" s="42"/>
+      <c r="D21" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="52"/>
+      <c r="E21" s="46"/>
     </row>
     <row r="22" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
+      <c r="A22" s="20">
         <v>4</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49" t="s">
+      <c r="C22" s="42"/>
+      <c r="D22" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="50"/>
+      <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
+      <c r="A23" s="20">
         <v>5</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49" t="s">
+      <c r="C23" s="42"/>
+      <c r="D23" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="50"/>
+      <c r="E23" s="44"/>
     </row>
     <row r="24" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22">
+      <c r="A24" s="20">
         <v>6</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="47" t="s">
+      <c r="C24" s="42"/>
+      <c r="D24" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="48"/>
+      <c r="E24" s="42"/>
     </row>
     <row r="25" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="A25" s="20">
         <v>7</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="47" t="s">
+      <c r="C25" s="42"/>
+      <c r="D25" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="48"/>
+      <c r="E25" s="42"/>
     </row>
     <row r="26" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
+      <c r="A26" s="20">
         <v>8</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="47" t="s">
+      <c r="C26" s="42"/>
+      <c r="D26" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="48"/>
+      <c r="E26" s="42"/>
     </row>
     <row r="27" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22">
+      <c r="A27" s="20">
         <v>9</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="47" t="s">
+      <c r="C27" s="42"/>
+      <c r="D27" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="48"/>
+      <c r="E27" s="42"/>
     </row>
     <row r="28" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
+      <c r="A28" s="20">
         <v>10</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="47" t="s">
+      <c r="C28" s="42"/>
+      <c r="D28" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="48"/>
+      <c r="E28" s="42"/>
     </row>
     <row r="29" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22">
+      <c r="A29" s="20">
         <v>11</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="47" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="42" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="22">
+      <c r="A30" s="20">
         <v>12</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="47" t="s">
+      <c r="C30" s="42"/>
+      <c r="D30" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="48"/>
+      <c r="E30" s="42"/>
     </row>
     <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-    </row>
-    <row r="33" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="54" t="s">
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="36"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="56"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="39"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="59"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="60" t="s">
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60" t="s">
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="61" t="s">
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="32"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61" t="s">
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="61" t="s">
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="64"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="65" t="s">
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+    </row>
+    <row r="50" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-    </row>
-    <row r="50" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="67"/>
-      <c r="C50" s="68"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="65">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E47:H47"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A45:D45"/>
@@ -1790,56 +1841,6 @@
     <mergeCell ref="E43:H43"/>
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="E44:H44"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:E15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
